--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Prok2-Prokr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Prok2-Prokr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -85,10 +88,16 @@
     <t>Prokr1</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>11.5528787777461</v>
+        <v>0.130431</v>
       </c>
       <c r="H2">
-        <v>11.5528787777461</v>
+        <v>0.391293</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.26764145008959</v>
+        <v>1.088579666666667</v>
       </c>
       <c r="N2">
-        <v>1.26764145008959</v>
+        <v>3.265739</v>
       </c>
       <c r="O2">
-        <v>0.5077888157375241</v>
+        <v>0.2679416930000997</v>
       </c>
       <c r="P2">
-        <v>0.5077888157375241</v>
+        <v>0.2679416930000997</v>
       </c>
       <c r="Q2">
-        <v>14.64490800653132</v>
+        <v>0.141984534503</v>
       </c>
       <c r="R2">
-        <v>14.64490800653132</v>
+        <v>1.277860810527</v>
       </c>
       <c r="S2">
-        <v>0.5077888157375241</v>
+        <v>0.002915219168514256</v>
       </c>
       <c r="T2">
-        <v>0.5077888157375241</v>
+        <v>0.002915219168514256</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>11.5528787777461</v>
+        <v>0.130431</v>
       </c>
       <c r="H3">
-        <v>11.5528787777461</v>
+        <v>0.391293</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.769942001978219</v>
+        <v>1.29653</v>
       </c>
       <c r="N3">
-        <v>0.769942001978219</v>
+        <v>3.88959</v>
       </c>
       <c r="O3">
-        <v>0.3084215472312512</v>
+        <v>0.3191263385335624</v>
       </c>
       <c r="P3">
-        <v>0.3084215472312512</v>
+        <v>0.3191263385335625</v>
       </c>
       <c r="Q3">
-        <v>8.895046614749512</v>
+        <v>0.16910770443</v>
       </c>
       <c r="R3">
-        <v>8.895046614749512</v>
+        <v>1.52196933987</v>
       </c>
       <c r="S3">
-        <v>0.3084215472312512</v>
+        <v>0.003472110700108417</v>
       </c>
       <c r="T3">
-        <v>0.3084215472312512</v>
+        <v>0.003472110700108418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -655,49 +664,607 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>11.5528787777461</v>
+        <v>0.130431</v>
       </c>
       <c r="H4">
-        <v>11.5528787777461</v>
+        <v>0.391293</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0108800505657519</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.458811527109585</v>
+        <v>1.003464333333333</v>
       </c>
       <c r="N4">
-        <v>0.458811527109585</v>
+        <v>3.010393</v>
       </c>
       <c r="O4">
-        <v>0.1837896370312247</v>
+        <v>0.2469915069807015</v>
       </c>
       <c r="P4">
-        <v>0.1837896370312247</v>
+        <v>0.2469915069807015</v>
       </c>
       <c r="Q4">
-        <v>5.300593954529604</v>
+        <v>0.130882856461</v>
       </c>
       <c r="R4">
-        <v>5.300593954529604</v>
+        <v>1.177945708149</v>
       </c>
       <c r="S4">
-        <v>0.1837896370312247</v>
+        <v>0.002687280085261295</v>
       </c>
       <c r="T4">
-        <v>0.1837896370312247</v>
+        <v>0.002687280085261295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.130431</v>
+      </c>
+      <c r="H5">
+        <v>0.391293</v>
+      </c>
+      <c r="I5">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="J5">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.14666</v>
+      </c>
+      <c r="N5">
+        <v>0.43998</v>
+      </c>
+      <c r="O5">
+        <v>0.03609871642718045</v>
+      </c>
+      <c r="P5">
+        <v>0.03609871642718045</v>
+      </c>
+      <c r="Q5">
+        <v>0.01912901046</v>
+      </c>
+      <c r="R5">
+        <v>0.17216109414</v>
+      </c>
+      <c r="S5">
+        <v>0.0003927558600864619</v>
+      </c>
+      <c r="T5">
+        <v>0.0003927558600864619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.130431</v>
+      </c>
+      <c r="H6">
+        <v>0.391293</v>
+      </c>
+      <c r="I6">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="J6">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4909829999999999</v>
+      </c>
+      <c r="N6">
+        <v>1.472949</v>
+      </c>
+      <c r="O6">
+        <v>0.1208499665046116</v>
+      </c>
+      <c r="P6">
+        <v>0.1208499665046116</v>
+      </c>
+      <c r="Q6">
+        <v>0.06403940367299998</v>
+      </c>
+      <c r="R6">
+        <v>0.576354633057</v>
+      </c>
+      <c r="S6">
+        <v>0.001314853746439597</v>
+      </c>
+      <c r="T6">
+        <v>0.001314853746439597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.130431</v>
+      </c>
+      <c r="H7">
+        <v>0.391293</v>
+      </c>
+      <c r="I7">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="J7">
+        <v>0.0108800505657519</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.03653133333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.109594</v>
+      </c>
+      <c r="O7">
+        <v>0.008991778553844297</v>
+      </c>
+      <c r="P7">
+        <v>0.008991778553844297</v>
+      </c>
+      <c r="Q7">
+        <v>0.004764818337999999</v>
+      </c>
+      <c r="R7">
+        <v>0.042883365042</v>
+      </c>
+      <c r="S7">
+        <v>9.783100534186942E-05</v>
+      </c>
+      <c r="T7">
+        <v>9.783100534186942E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H8">
+        <v>35.57297</v>
+      </c>
+      <c r="I8">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J8">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>1.088579666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.265739</v>
+      </c>
+      <c r="O8">
+        <v>0.2679416930000997</v>
+      </c>
+      <c r="P8">
+        <v>0.2679416930000997</v>
+      </c>
+      <c r="Q8">
+        <v>12.90800394164778</v>
+      </c>
+      <c r="R8">
+        <v>116.17203547483</v>
+      </c>
+      <c r="S8">
+        <v>0.2650264738315854</v>
+      </c>
+      <c r="T8">
+        <v>0.2650264738315855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H9">
+        <v>35.57297</v>
+      </c>
+      <c r="I9">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J9">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.29653</v>
+      </c>
+      <c r="N9">
+        <v>3.88959</v>
+      </c>
+      <c r="O9">
+        <v>0.3191263385335624</v>
+      </c>
+      <c r="P9">
+        <v>0.3191263385335625</v>
+      </c>
+      <c r="Q9">
+        <v>15.37380759803333</v>
+      </c>
+      <c r="R9">
+        <v>138.3642683823</v>
+      </c>
+      <c r="S9">
+        <v>0.315654227833454</v>
+      </c>
+      <c r="T9">
+        <v>0.3156542278334541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H10">
+        <v>35.57297</v>
+      </c>
+      <c r="I10">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J10">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.003464333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.010393</v>
+      </c>
+      <c r="O10">
+        <v>0.2469915069807015</v>
+      </c>
+      <c r="P10">
+        <v>0.2469915069807015</v>
+      </c>
+      <c r="Q10">
+        <v>11.89873554191222</v>
+      </c>
+      <c r="R10">
+        <v>107.08861987721</v>
+      </c>
+      <c r="S10">
+        <v>0.2443042268954402</v>
+      </c>
+      <c r="T10">
+        <v>0.2443042268954402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H11">
+        <v>35.57297</v>
+      </c>
+      <c r="I11">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J11">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.14666</v>
+      </c>
+      <c r="N11">
+        <v>0.43998</v>
+      </c>
+      <c r="O11">
+        <v>0.03609871642718045</v>
+      </c>
+      <c r="P11">
+        <v>0.03609871642718045</v>
+      </c>
+      <c r="Q11">
+        <v>1.739043926733333</v>
+      </c>
+      <c r="R11">
+        <v>15.6513953406</v>
+      </c>
+      <c r="S11">
+        <v>0.03570596056709398</v>
+      </c>
+      <c r="T11">
+        <v>0.03570596056709398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H12">
+        <v>35.57297</v>
+      </c>
+      <c r="I12">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J12">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4909829999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.472949</v>
+      </c>
+      <c r="O12">
+        <v>0.1208499665046116</v>
+      </c>
+      <c r="P12">
+        <v>0.1208499665046116</v>
+      </c>
+      <c r="Q12">
+        <v>5.821907843169999</v>
+      </c>
+      <c r="R12">
+        <v>52.39717058852999</v>
+      </c>
+      <c r="S12">
+        <v>0.119535112758172</v>
+      </c>
+      <c r="T12">
+        <v>0.119535112758172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.85765666666667</v>
+      </c>
+      <c r="H13">
+        <v>35.57297</v>
+      </c>
+      <c r="I13">
+        <v>0.9891199494342481</v>
+      </c>
+      <c r="J13">
+        <v>0.9891199494342482</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03653133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.109594</v>
+      </c>
+      <c r="O13">
+        <v>0.008991778553844297</v>
+      </c>
+      <c r="P13">
+        <v>0.008991778553844297</v>
+      </c>
+      <c r="Q13">
+        <v>0.4331760082422222</v>
+      </c>
+      <c r="R13">
+        <v>3.89858407418</v>
+      </c>
+      <c r="S13">
+        <v>0.008893947548502429</v>
+      </c>
+      <c r="T13">
+        <v>0.008893947548502429</v>
       </c>
     </row>
   </sheetData>
